--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf2-Gpc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf2-Gpc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Fgf2</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H2">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I2">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J2">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.740393</v>
+        <v>17.684051</v>
       </c>
       <c r="N2">
-        <v>47.221179</v>
+        <v>53.052153</v>
       </c>
       <c r="O2">
-        <v>0.2847568403735705</v>
+        <v>0.3098657399520197</v>
       </c>
       <c r="P2">
-        <v>0.2847568403735705</v>
+        <v>0.3098657399520197</v>
       </c>
       <c r="Q2">
-        <v>14.00410697575367</v>
+        <v>18.85340297769133</v>
       </c>
       <c r="R2">
-        <v>126.036962781783</v>
+        <v>169.680626799222</v>
       </c>
       <c r="S2">
-        <v>0.02655856704231541</v>
+        <v>0.03235350131823673</v>
       </c>
       <c r="T2">
-        <v>0.02655856704231541</v>
+        <v>0.03235350131823674</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H3">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I3">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J3">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +626,22 @@
         <v>101.466729</v>
       </c>
       <c r="O3">
-        <v>0.6118725911752718</v>
+        <v>0.5926444316425018</v>
       </c>
       <c r="P3">
-        <v>0.6118725911752717</v>
+        <v>0.5926444316425018</v>
       </c>
       <c r="Q3">
-        <v>30.091390293237</v>
+        <v>36.058727544294</v>
       </c>
       <c r="R3">
-        <v>270.822512639133</v>
+        <v>324.528547898646</v>
       </c>
       <c r="S3">
-        <v>0.05706784501740097</v>
+        <v>0.06187880726459241</v>
       </c>
       <c r="T3">
-        <v>0.05706784501740095</v>
+        <v>0.06187880726459241</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,78 +664,78 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H4">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I4">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J4">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>5.713974666666666</v>
+        <v>0.03317233333333333</v>
       </c>
       <c r="N4">
-        <v>17.141924</v>
+        <v>0.09951699999999999</v>
       </c>
       <c r="O4">
-        <v>0.1033705684511578</v>
+        <v>0.0005812565013677228</v>
       </c>
       <c r="P4">
-        <v>0.1033705684511578</v>
+        <v>0.0005812565013677228</v>
       </c>
       <c r="Q4">
-        <v>5.083679453794223</v>
+        <v>0.03536584281755556</v>
       </c>
       <c r="R4">
-        <v>45.753115084148</v>
+        <v>0.318292585358</v>
       </c>
       <c r="S4">
-        <v>0.009641117554228699</v>
+        <v>6.068977805079775E-05</v>
       </c>
       <c r="T4">
-        <v>0.009641117554228695</v>
+        <v>6.068977805079775E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>7.418580000000001</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H5">
-        <v>22.25574</v>
+        <v>3.198374</v>
       </c>
       <c r="I5">
-        <v>0.777698766101638</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J5">
-        <v>0.777698766101638</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.740393</v>
+        <v>5.530576333333333</v>
       </c>
       <c r="N5">
-        <v>47.221179</v>
+        <v>16.591729</v>
       </c>
       <c r="O5">
-        <v>0.2847568403735705</v>
+        <v>0.09690857190411072</v>
       </c>
       <c r="P5">
-        <v>0.2847568403735705</v>
+        <v>0.09690857190411073</v>
       </c>
       <c r="Q5">
-        <v>116.77136470194</v>
+        <v>5.896283849849556</v>
       </c>
       <c r="R5">
-        <v>1050.94228231746</v>
+        <v>53.066554648646</v>
       </c>
       <c r="S5">
-        <v>0.2214550433975269</v>
+        <v>0.01011835516031416</v>
       </c>
       <c r="T5">
-        <v>0.2214550433975269</v>
+        <v>0.01011835516031417</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +794,10 @@
         <v>22.25574</v>
       </c>
       <c r="I6">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J6">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.82224299999999</v>
+        <v>17.684051</v>
       </c>
       <c r="N6">
-        <v>101.466729</v>
+        <v>53.052153</v>
       </c>
       <c r="O6">
-        <v>0.6118725911752718</v>
+        <v>0.3098657399520197</v>
       </c>
       <c r="P6">
-        <v>0.6118725911752717</v>
+        <v>0.3098657399520197</v>
       </c>
       <c r="Q6">
-        <v>250.91301547494</v>
+        <v>131.19054706758</v>
       </c>
       <c r="R6">
-        <v>2258.21713927446</v>
+        <v>1180.71492360822</v>
       </c>
       <c r="S6">
-        <v>0.4758525591684209</v>
+        <v>0.2251303673142459</v>
       </c>
       <c r="T6">
-        <v>0.4758525591684208</v>
+        <v>0.2251303673142459</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +856,10 @@
         <v>22.25574</v>
       </c>
       <c r="I7">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J7">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,43 +868,43 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.713974666666666</v>
+        <v>33.82224299999999</v>
       </c>
       <c r="N7">
-        <v>17.141924</v>
+        <v>101.466729</v>
       </c>
       <c r="O7">
-        <v>0.1033705684511578</v>
+        <v>0.5926444316425018</v>
       </c>
       <c r="P7">
-        <v>0.1033705684511578</v>
+        <v>0.5926444316425018</v>
       </c>
       <c r="Q7">
-        <v>42.38957818264</v>
+        <v>250.91301547494</v>
       </c>
       <c r="R7">
-        <v>381.50620364376</v>
+        <v>2258.21713927446</v>
       </c>
       <c r="S7">
-        <v>0.08039116353569035</v>
+        <v>0.4305808657745717</v>
       </c>
       <c r="T7">
-        <v>0.08039116353569034</v>
+        <v>0.4305808657745717</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -909,60 +912,60 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.298413</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H8">
-        <v>0.895239</v>
+        <v>22.25574</v>
       </c>
       <c r="I8">
-        <v>0.031282997809377</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J8">
-        <v>0.03128299780937701</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>15.740393</v>
+        <v>0.03317233333333333</v>
       </c>
       <c r="N8">
-        <v>47.221179</v>
+        <v>0.09951699999999999</v>
       </c>
       <c r="O8">
-        <v>0.2847568403735705</v>
+        <v>0.0005812565013677228</v>
       </c>
       <c r="P8">
-        <v>0.2847568403735705</v>
+        <v>0.0005812565013677228</v>
       </c>
       <c r="Q8">
-        <v>4.697137896308999</v>
+        <v>0.24609160862</v>
       </c>
       <c r="R8">
-        <v>42.274241066781</v>
+        <v>2.21482447758</v>
       </c>
       <c r="S8">
-        <v>0.008908047613611522</v>
+        <v>0.0004223070600737317</v>
       </c>
       <c r="T8">
-        <v>0.008908047613611523</v>
+        <v>0.0004223070600737317</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.298413</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H9">
-        <v>0.895239</v>
+        <v>22.25574</v>
       </c>
       <c r="I9">
-        <v>0.031282997809377</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J9">
-        <v>0.03128299780937701</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.82224299999999</v>
+        <v>5.530576333333333</v>
       </c>
       <c r="N9">
-        <v>101.466729</v>
+        <v>16.591729</v>
       </c>
       <c r="O9">
-        <v>0.6118725911752718</v>
+        <v>0.09690857190411072</v>
       </c>
       <c r="P9">
-        <v>0.6118725911752717</v>
+        <v>0.09690857190411073</v>
       </c>
       <c r="Q9">
-        <v>10.092997000359</v>
+        <v>41.02902297494001</v>
       </c>
       <c r="R9">
-        <v>90.83697300323099</v>
+        <v>369.26120677446</v>
       </c>
       <c r="S9">
-        <v>0.01914120892935386</v>
+        <v>0.07040811414662899</v>
       </c>
       <c r="T9">
-        <v>0.01914120892935386</v>
+        <v>0.07040811414662899</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1021,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H10">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I10">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J10">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,60 +1054,60 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.713974666666666</v>
+        <v>17.684051</v>
       </c>
       <c r="N10">
-        <v>17.141924</v>
+        <v>53.052153</v>
       </c>
       <c r="O10">
-        <v>0.1033705684511578</v>
+        <v>0.3098657399520197</v>
       </c>
       <c r="P10">
-        <v>0.1033705684511578</v>
+        <v>0.3098657399520197</v>
       </c>
       <c r="Q10">
-        <v>1.705124322204</v>
+        <v>7.668570822476668</v>
       </c>
       <c r="R10">
-        <v>15.346118899836</v>
+        <v>69.01713740229002</v>
       </c>
       <c r="S10">
-        <v>0.003233741266411626</v>
+        <v>0.01315969941912162</v>
       </c>
       <c r="T10">
-        <v>0.003233741266411626</v>
+        <v>0.01315969941912163</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.932458</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H11">
-        <v>2.797374</v>
+        <v>1.30093</v>
       </c>
       <c r="I11">
-        <v>0.09775070647503985</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J11">
-        <v>0.09775070647503985</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,122 +1116,122 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.740393</v>
+        <v>33.82224299999999</v>
       </c>
       <c r="N11">
-        <v>47.221179</v>
+        <v>101.466729</v>
       </c>
       <c r="O11">
-        <v>0.2847568403735705</v>
+        <v>0.5926444316425018</v>
       </c>
       <c r="P11">
-        <v>0.2847568403735705</v>
+        <v>0.5926444316425018</v>
       </c>
       <c r="Q11">
-        <v>14.677255375994</v>
+        <v>14.66679019533</v>
       </c>
       <c r="R11">
-        <v>132.095298383946</v>
+        <v>132.00111175797</v>
       </c>
       <c r="S11">
-        <v>0.02783518232011666</v>
+        <v>0.02516903799703419</v>
       </c>
       <c r="T11">
-        <v>0.02783518232011666</v>
+        <v>0.02516903799703419</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.932458</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H12">
-        <v>2.797374</v>
+        <v>1.30093</v>
       </c>
       <c r="I12">
-        <v>0.09775070647503985</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J12">
-        <v>0.09775070647503985</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>33.82224299999999</v>
+        <v>0.03317233333333333</v>
       </c>
       <c r="N12">
-        <v>101.466729</v>
+        <v>0.09951699999999999</v>
       </c>
       <c r="O12">
-        <v>0.6118725911752718</v>
+        <v>0.0005812565013677228</v>
       </c>
       <c r="P12">
-        <v>0.6118725911752717</v>
+        <v>0.0005812565013677228</v>
       </c>
       <c r="Q12">
-        <v>31.53782106329399</v>
+        <v>0.01438496120111111</v>
       </c>
       <c r="R12">
-        <v>283.840389569646</v>
+        <v>0.12946465081</v>
       </c>
       <c r="S12">
-        <v>0.05981097806009605</v>
+        <v>2.46854035705719E-05</v>
       </c>
       <c r="T12">
-        <v>0.05981097806009604</v>
+        <v>2.46854035705719E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.932458</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H13">
-        <v>2.797374</v>
+        <v>1.30093</v>
       </c>
       <c r="I13">
-        <v>0.09775070647503985</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J13">
-        <v>0.09775070647503985</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1240,524 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.713974666666666</v>
+        <v>5.530576333333333</v>
       </c>
       <c r="N13">
-        <v>17.141924</v>
+        <v>16.591729</v>
       </c>
       <c r="O13">
-        <v>0.1033705684511578</v>
+        <v>0.09690857190411072</v>
       </c>
       <c r="P13">
-        <v>0.1033705684511578</v>
+        <v>0.09690857190411073</v>
       </c>
       <c r="Q13">
-        <v>5.328041389730666</v>
+        <v>2.398297556441111</v>
       </c>
       <c r="R13">
-        <v>47.952372507576</v>
+        <v>21.58467800797</v>
       </c>
       <c r="S13">
-        <v>0.01010454609482714</v>
+        <v>0.004115613677045745</v>
       </c>
       <c r="T13">
-        <v>0.01010454609482714</v>
+        <v>0.004115613677045745</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.951285</v>
+      </c>
+      <c r="H14">
+        <v>2.853855</v>
+      </c>
+      <c r="I14">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="J14">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>17.684051</v>
+      </c>
+      <c r="N14">
+        <v>53.052153</v>
+      </c>
+      <c r="O14">
+        <v>0.3098657399520197</v>
+      </c>
+      <c r="P14">
+        <v>0.3098657399520197</v>
+      </c>
+      <c r="Q14">
+        <v>16.822572455535</v>
+      </c>
+      <c r="R14">
+        <v>151.403152099815</v>
+      </c>
+      <c r="S14">
+        <v>0.02886848176747199</v>
+      </c>
+      <c r="T14">
+        <v>0.028868481767472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.951285</v>
+      </c>
+      <c r="H15">
+        <v>2.853855</v>
+      </c>
+      <c r="I15">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="J15">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>33.82224299999999</v>
+      </c>
+      <c r="N15">
+        <v>101.466729</v>
+      </c>
+      <c r="O15">
+        <v>0.5926444316425018</v>
+      </c>
+      <c r="P15">
+        <v>0.5926444316425018</v>
+      </c>
+      <c r="Q15">
+        <v>32.174592432255</v>
+      </c>
+      <c r="R15">
+        <v>289.571331890295</v>
+      </c>
+      <c r="S15">
+        <v>0.05521341266096253</v>
+      </c>
+      <c r="T15">
+        <v>0.05521341266096253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.951285</v>
+      </c>
+      <c r="H16">
+        <v>2.853855</v>
+      </c>
+      <c r="I16">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="J16">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.03317233333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.09951699999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.0005812565013677228</v>
+      </c>
+      <c r="P16">
+        <v>0.0005812565013677228</v>
+      </c>
+      <c r="Q16">
+        <v>0.031556343115</v>
+      </c>
+      <c r="R16">
+        <v>0.284007088035</v>
+      </c>
+      <c r="S16">
+        <v>5.415246201324779E-05</v>
+      </c>
+      <c r="T16">
+        <v>5.415246201324779E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.951285</v>
+      </c>
+      <c r="H17">
+        <v>2.853855</v>
+      </c>
+      <c r="I17">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="J17">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.530576333333333</v>
+      </c>
+      <c r="N17">
+        <v>16.591729</v>
+      </c>
+      <c r="O17">
+        <v>0.09690857190411072</v>
+      </c>
+      <c r="P17">
+        <v>0.09690857190411073</v>
+      </c>
+      <c r="Q17">
+        <v>5.261154307255</v>
+      </c>
+      <c r="R17">
+        <v>47.35038876529501</v>
+      </c>
+      <c r="S17">
+        <v>0.009028437095236009</v>
+      </c>
+      <c r="T17">
+        <v>0.00902843709523601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.023536</v>
+      </c>
+      <c r="I18">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J18">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>17.684051</v>
+      </c>
+      <c r="N18">
+        <v>53.052153</v>
+      </c>
+      <c r="O18">
+        <v>0.3098657399520197</v>
+      </c>
+      <c r="P18">
+        <v>0.3098657399520197</v>
+      </c>
+      <c r="Q18">
+        <v>6.033420941445334</v>
+      </c>
+      <c r="R18">
+        <v>54.30078847300801</v>
+      </c>
+      <c r="S18">
+        <v>0.01035369013294341</v>
+      </c>
+      <c r="T18">
+        <v>0.01035369013294341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.023536</v>
+      </c>
+      <c r="I19">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J19">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>33.82224299999999</v>
+      </c>
+      <c r="N19">
+        <v>101.466729</v>
+      </c>
+      <c r="O19">
+        <v>0.5926444316425018</v>
+      </c>
+      <c r="P19">
+        <v>0.5926444316425018</v>
+      </c>
+      <c r="Q19">
+        <v>11.539427770416</v>
+      </c>
+      <c r="R19">
+        <v>103.854849933744</v>
+      </c>
+      <c r="S19">
+        <v>0.01980230794534093</v>
+      </c>
+      <c r="T19">
+        <v>0.01980230794534093</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.023536</v>
+      </c>
+      <c r="I20">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J20">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.03317233333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.09951699999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.0005812565013677228</v>
+      </c>
+      <c r="P20">
+        <v>0.0005812565013677228</v>
+      </c>
+      <c r="Q20">
+        <v>0.01131769245688889</v>
+      </c>
+      <c r="R20">
+        <v>0.101859232112</v>
+      </c>
+      <c r="S20">
+        <v>1.942179765937358E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.942179765937358E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.023536</v>
+      </c>
+      <c r="I21">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J21">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.530576333333333</v>
+      </c>
+      <c r="N21">
+        <v>16.591729</v>
+      </c>
+      <c r="O21">
+        <v>0.09690857190411072</v>
+      </c>
+      <c r="P21">
+        <v>0.09690857190411073</v>
+      </c>
+      <c r="Q21">
+        <v>1.886914659304889</v>
+      </c>
+      <c r="R21">
+        <v>16.982231933744</v>
+      </c>
+      <c r="S21">
+        <v>0.003238051824885807</v>
+      </c>
+      <c r="T21">
+        <v>0.003238051824885807</v>
       </c>
     </row>
   </sheetData>
